--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t xml:space="preserve">build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default package</t>
   </si>
   <si>
     <t xml:space="preserve">package</t>
@@ -175,35 +184,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -222,13 +239,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -248,6 +265,14 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -272,11 +297,11 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -288,10 +313,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -325,11 +350,11 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -341,19 +366,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -387,20 +412,20 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -409,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -65,6 +65,15 @@
     <t xml:space="preserve">related</t>
   </si>
   <si>
+    <t xml:space="preserve">Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing description.</t>
+  </si>
+  <si>
     <t xml:space="preserve">parent</t>
   </si>
   <si>
@@ -75,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasThing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasThing summary</t>
   </si>
   <si>
     <t xml:space="preserve">attribute</t>
@@ -241,11 +256,14 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -291,10 +309,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,6 +344,20 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -344,10 +376,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -366,16 +398,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -388,6 +420,17 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -422,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -434,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="16"/>
-    <sheet name="packages" r:id="rId9" sheetId="17"/>
-    <sheet name="concepts" r:id="rId10" sheetId="18"/>
-    <sheet name="elements" r:id="rId11" sheetId="19"/>
-    <sheet name="structures" r:id="rId12" sheetId="20"/>
+    <sheet name="model" r:id="rId8" sheetId="46"/>
+    <sheet name="packages" r:id="rId9" sheetId="47"/>
+    <sheet name="concepts" r:id="rId10" sheetId="48"/>
+    <sheet name="elements" r:id="rId11" sheetId="49"/>
+    <sheet name="structures" r:id="rId12" sheetId="50"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="51">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -251,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +259,285 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -272,7 +551,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -282,50 +561,59 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" s="14" customFormat="true">
+      <c r="A2" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s" s="18">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="21">
         <v>25</v>
       </c>
     </row>
@@ -334,7 +622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -344,44 +632,52 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="22" customFormat="true">
+      <c r="A1" t="s" s="23">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="24">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="26">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="27">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="28">
         <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" s="29" customFormat="true">
+      <c r="A2" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s" s="32">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="35">
         <v>25</v>
       </c>
     </row>
@@ -390,7 +686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -400,62 +696,73 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.99609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="36" customFormat="true">
+      <c r="A1" t="s" s="37">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="38">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="39">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="40">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="41">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="42">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="43">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="44">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="45">
         <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" s="46" customFormat="true">
+      <c r="A2" t="s" s="47">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="48">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="49">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="50">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E2" t="s" s="51">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="52">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="53">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s" s="54">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="55">
         <v>25</v>
       </c>
     </row>
@@ -464,7 +771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -474,80 +781,94 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.05859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="56" customFormat="true">
+      <c r="A1" t="s" s="57">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="58">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="59">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="60">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="61">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="62">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="63">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="64">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="65">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="66">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="67">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="68">
         <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" s="69" customFormat="true">
+      <c r="A2" t="s" s="70">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="71">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="72">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="D2" t="s" s="73">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="74">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="75">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="76">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s" s="77">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="78">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s" s="79">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s" s="80">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s" s="81">
         <v>25</v>
       </c>
     </row>
@@ -556,7 +877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -566,42 +887,56 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="82" customFormat="true">
+      <c r="A1" t="s" s="83">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="84">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="85">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="86">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="87">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="88">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="89">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="90">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="91">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="92">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="93">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="94">
         <v>32</v>
       </c>
     </row>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="6"/>
-    <sheet name="packages" r:id="rId9" sheetId="7"/>
-    <sheet name="concepts" r:id="rId10" sheetId="8"/>
-    <sheet name="elements" r:id="rId11" sheetId="9"/>
-    <sheet name="structures" r:id="rId12" sheetId="10"/>
+    <sheet name="model" r:id="rId8" sheetId="11"/>
+    <sheet name="packages" r:id="rId9" sheetId="12"/>
+    <sheet name="concepts" r:id="rId10" sheetId="13"/>
+    <sheet name="elements" r:id="rId11" sheetId="14"/>
+    <sheet name="structures" r:id="rId12" sheetId="15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="50">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -272,79 +275,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="2" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="2" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="2" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="2" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="2" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="2" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="2" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="2" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="2" width="15.09765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="2" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="2" width="5.046875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -355,14 +286,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="2" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="2" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="2" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="2" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -387,9 +318,6 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -422,7 +350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -433,13 +361,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="2" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="2" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="2" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,9 +389,6 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -493,7 +418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -504,16 +429,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="2" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="2" width="14.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="2" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="2" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="2" width="7.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="2" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="2" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="14.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,9 +468,6 @@
       </c>
       <c r="I1" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -588,7 +510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -599,19 +521,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="2" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="2" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="2" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="2" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="2" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="2" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="2" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="2" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="2" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,9 +573,6 @@
       <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -694,6 +613,74 @@
       </c>
       <c r="M2" t="s">
         <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="3" width="15.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="3" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="11"/>
-    <sheet name="packages" r:id="rId9" sheetId="12"/>
-    <sheet name="concepts" r:id="rId10" sheetId="13"/>
-    <sheet name="elements" r:id="rId11" sheetId="14"/>
-    <sheet name="structures" r:id="rId12" sheetId="15"/>
+    <sheet name="model" r:id="rId8" sheetId="16"/>
+    <sheet name="packages" r:id="rId9" sheetId="17"/>
+    <sheet name="concepts" r:id="rId10" sheetId="18"/>
+    <sheet name="elements" r:id="rId11" sheetId="19"/>
+    <sheet name="structures" r:id="rId12" sheetId="20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="50">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -275,82 +278,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -361,13 +289,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -384,10 +312,10 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -395,19 +323,19 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -418,9 +346,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -429,45 +357,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="14.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="7.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -475,44 +387,29 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -521,19 +418,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="3" width="0.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="14.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,25 +446,13 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -579,50 +460,41 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -631,18 +503,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="3" width="15.09765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="3" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -653,6 +525,108 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="4" width="15.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="4" width="6.0703125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
       <c r="D1" t="s">
@@ -678,9 +652,6 @@
       </c>
       <c r="K1" t="s">
         <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="16"/>
-    <sheet name="packages" r:id="rId9" sheetId="17"/>
-    <sheet name="concepts" r:id="rId10" sheetId="18"/>
-    <sheet name="elements" r:id="rId11" sheetId="19"/>
-    <sheet name="structures" r:id="rId12" sheetId="20"/>
+    <sheet name="model" r:id="rId8" sheetId="21"/>
+    <sheet name="packages" r:id="rId9" sheetId="22"/>
+    <sheet name="concepts" r:id="rId10" sheetId="23"/>
+    <sheet name="elements" r:id="rId11" sheetId="24"/>
+    <sheet name="structures" r:id="rId12" sheetId="25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="50">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -278,75 +281,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -357,12 +292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="5" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="5" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="5" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="5" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -379,7 +314,7 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -387,19 +322,19 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -407,9 +342,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -418,41 +353,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="14.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="7.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="5" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="5" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="5" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -460,41 +379,26 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -503,18 +407,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="4" width="0.94921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="5" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="5" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="5" width="14.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="5" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="5" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="5" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,22 +434,10 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -557,47 +445,38 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -606,17 +485,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="4" width="15.09765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="4" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="5" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="5" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="5" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="5" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="5" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="5" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="5" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="5" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,6 +506,101 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="5" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="5" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="5" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="5" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="5" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="5" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="5" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="5" width="15.09765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
       <c r="D1" t="s">
@@ -649,9 +623,6 @@
       </c>
       <c r="J1" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="21"/>
-    <sheet name="packages" r:id="rId9" sheetId="22"/>
-    <sheet name="concepts" r:id="rId10" sheetId="23"/>
-    <sheet name="elements" r:id="rId11" sheetId="24"/>
-    <sheet name="structures" r:id="rId12" sheetId="25"/>
+    <sheet name="model" r:id="rId8" sheetId="26"/>
+    <sheet name="packages" r:id="rId9" sheetId="27"/>
+    <sheet name="concepts" r:id="rId10" sheetId="28"/>
+    <sheet name="elements" r:id="rId11" sheetId="29"/>
+    <sheet name="structures" r:id="rId12" sheetId="30"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="50">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -281,7 +284,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -292,12 +295,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="5" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="5" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="5" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="5" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="6" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="6" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="6" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -342,7 +345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -353,11 +356,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="5" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="5" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="5" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="6" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="6" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="6" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -396,7 +399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -407,14 +410,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="5" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="5" width="14.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="5" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="5" width="7.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="5" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="6" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="6" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="6" width="14.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="6" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="6" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="6" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,7 +477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -485,17 +488,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="5" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="5" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="5" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="5" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="5" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="5" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="5" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="5" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="6" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="6" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="6" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="6" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="6" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="6" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="6" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="6" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="6" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -570,9 +573,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -581,16 +584,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="5" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="5" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="5" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="5" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="5" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="5" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="5" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="5" width="15.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="6" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="6" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="6" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="6" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="6" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="6" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="6" width="14.140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,9 +623,6 @@
       <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="26"/>
-    <sheet name="packages" r:id="rId9" sheetId="27"/>
-    <sheet name="concepts" r:id="rId10" sheetId="28"/>
-    <sheet name="elements" r:id="rId11" sheetId="29"/>
-    <sheet name="structures" r:id="rId12" sheetId="30"/>
+    <sheet name="model" r:id="rId8" sheetId="6"/>
+    <sheet name="packages" r:id="rId9" sheetId="7"/>
+    <sheet name="concepts" r:id="rId10" sheetId="8"/>
+    <sheet name="elements" r:id="rId11" sheetId="9"/>
+    <sheet name="structures" r:id="rId12" sheetId="10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -140,7 +140,7 @@
     <t>Thing description.</t>
   </si>
   <si>
-    <t>https://github.com/ShahimEssaid/ccdh-model/issues/19</t>
+    <t>https://github.com/ShahimEssaid/ccdh-model/issues/22</t>
   </si>
   <si>
     <t>parent</t>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,18 +256,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -284,9 +272,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -295,49 +283,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="6" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="6" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="6" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="2" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="2" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="2" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="2" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="2" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="2" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="2" width="15.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="2" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="2" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -345,62 +344,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="6" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="6" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="6" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -410,14 +355,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="6" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="6" width="14.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="6" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="6" width="7.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="6" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="2" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="2" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="2" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="2" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="2" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="2" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="2" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="2" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="2" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="2" width="14.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="2" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="2" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="2" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="2" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="2" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +538,15 @@
       <c r="G1" t="s">
         <v>34</v>
       </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -467,6 +572,12 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -477,9 +588,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -488,17 +599,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="6" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="6" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="6" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="6" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="6" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="6" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="6" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="6" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="6" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="2" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="2" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="2" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="2" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="2" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="2" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="2" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="2" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="2" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="2" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="2" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="2" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,6 +645,15 @@
       <c r="J1" t="s">
         <v>34</v>
       </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -567,61 +689,11 @@
       <c r="K2" t="s">
         <v>29</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="6" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="6" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="6" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="6" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="6" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="6" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="6" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="6" width="14.140625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="11"/>
-    <sheet name="packages" r:id="rId9" sheetId="12"/>
-    <sheet name="concepts" r:id="rId10" sheetId="13"/>
-    <sheet name="elements" r:id="rId11" sheetId="14"/>
-    <sheet name="structures" r:id="rId12" sheetId="15"/>
+    <sheet name="model" r:id="rId8" sheetId="16"/>
+    <sheet name="packages" r:id="rId9" sheetId="17"/>
+    <sheet name="concepts" r:id="rId10" sheetId="18"/>
+    <sheet name="elements" r:id="rId11" sheetId="19"/>
+    <sheet name="structures" r:id="rId12" sheetId="20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="50">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +256,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -275,7 +278,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -286,14 +289,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -353,7 +356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -364,13 +367,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,7 +427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -435,16 +438,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="14.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="7.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="3" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="14.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="4" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,7 +522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -530,19 +533,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="3" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="4" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -632,7 +635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -643,19 +646,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="3" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="3" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="3" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="3" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="3" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="3" width="15.09765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="3" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="3" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="4" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="4" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="4" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="4" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="4" width="15.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="4" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="4" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -197,7 +197,7 @@
     <t>some description</t>
   </si>
   <si>
-    <t>https://github.com/ShahimEssaid/ccdh-model/issues/24</t>
+    <t>https://github.com/ShahimEssaid/ccdh-model/issues/23</t>
   </si>
   <si>
     <t>default:C:Thing</t>

--- a/model_sets/src/default.xlsx
+++ b/model_sets/src/default.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="11"/>
-    <sheet name="packages" r:id="rId9" sheetId="12"/>
-    <sheet name="concepts" r:id="rId10" sheetId="13"/>
-    <sheet name="elements" r:id="rId11" sheetId="14"/>
-    <sheet name="structures" r:id="rId12" sheetId="15"/>
+    <sheet name="model" r:id="rId8" sheetId="6"/>
+    <sheet name="packages" r:id="rId9" sheetId="7"/>
+    <sheet name="concepts" r:id="rId10" sheetId="8"/>
+    <sheet name="elements" r:id="rId11" sheetId="9"/>
+    <sheet name="structures" r:id="rId12" sheetId="10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="74">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -328,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,9 +340,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="true"/>
@@ -359,7 +356,79 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="3" width="15.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="3" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="3" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -370,14 +439,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="21.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="11.0078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="21.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,7 +506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -448,13 +517,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="6.8125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="23.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="24.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="6.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="23.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="24.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,7 +577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -519,16 +588,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="9.17578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="17.5703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="15.92578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="47.22265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="4" width="35.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="9.17578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="17.5703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="47.22265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="3" width="35.9453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -636,7 +705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -647,19 +716,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="16.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="18.34375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="6.44921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="13.75" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="15.5390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="4" width="6.87890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="4" width="7.02734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="4" width="5.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="3" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="3" width="16.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="3" width="18.34375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="3" width="8.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="3" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="3" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="3" width="15.5390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="3" width="14.140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="3" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="3" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="3" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="3" width="5.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -747,76 +816,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" style="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="4" width="5.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="8.21875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="4" width="7.8203125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="4" width="8.8125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="4" width="10.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="4" width="8.17578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="4" width="8.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="4" width="14.140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="4" width="15.09765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="4" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="4" width="5.5703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="4" width="5.046875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>